--- a/artfynd/A 18731-2021 artfynd.xlsx
+++ b/artfynd/A 18731-2021 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,6 +1504,118 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131157738</v>
+      </c>
+      <c r="B9" t="n">
+        <v>83223</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Edetjärnens badplats, Edetjärnens badplats, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>447575</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7025519</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På gammal gran</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Ludvig Nordin</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Ludvig Nordin</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18731-2021 artfynd.xlsx
+++ b/artfynd/A 18731-2021 artfynd.xlsx
@@ -1509,7 +1509,7 @@
         <v>131157738</v>
       </c>
       <c r="B9" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
